--- a/MedicalPJ/bin/Debug/doctors.xlsx
+++ b/MedicalPJ/bin/Debug/doctors.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t xml:space="preserve">wbc</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
   </si>
 </sst>
 </file>
@@ -852,6 +855,15 @@
       <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="23"/>
       <c r="J9" s="24"/>
       <c r="L9" s="25"/>

--- a/MedicalPJ/bin/Debug/doctors.xlsx
+++ b/MedicalPJ/bin/Debug/doctors.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr autoCompressPictures="1" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bimbe\OneDrive\מסמכים\GitHub\Medical_Testing_Project\MedicalPJ\bin\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF52907-7808-43B8-8AB9-86BCD738A54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="14440" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
     <sheet name="sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="1" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
@@ -29,118 +35,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">wbc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lymph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crtn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male</t>
-  </si>
-  <si>
-    <t xml:space="preserve">east</t>
-  </si>
-  <si>
-    <t xml:space="preserve">age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ethiopian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">316611409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">das</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">סמי</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+  <si>
+    <t>wbc</t>
+  </si>
+  <si>
+    <t>Neut</t>
+  </si>
+  <si>
+    <t>Lymph</t>
+  </si>
+  <si>
+    <t>RBC</t>
+  </si>
+  <si>
+    <t>HCT</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Hb</t>
+  </si>
+  <si>
+    <t>Crtn</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>HDL</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ethiopian</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Obama</t>
+  </si>
+  <si>
+    <t>obama</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>316611409</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>shir</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>סמי</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>aaaaaa</t>
+  </si>
+  <si>
+    <t>a1!11111</t>
+  </si>
+  <si>
+    <t>111111111</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,130 +202,121 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="93">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" builtinId="0"/>
-    <cellStyle name="ניטראלי 2" xfId="2" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -609,16 +615,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection sqref="A1:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7000</v>
       </c>
@@ -720,33 +726,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="default" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="4.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -759,7 +762,7 @@
       <c r="S1" s="91"/>
       <c r="T1" s="92"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -770,7 +773,7 @@
         <v>316611409</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -784,7 +787,7 @@
       <c r="J3" s="6"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -798,7 +801,7 @@
       <c r="J4" s="9"/>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -812,7 +815,7 @@
       <c r="J5" s="12"/>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -826,7 +829,7 @@
       <c r="J6" s="15"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -840,7 +843,7 @@
       <c r="J7" s="18"/>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -854,7 +857,7 @@
       <c r="J8" s="21"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -868,112 +871,121 @@
       <c r="J9" s="24"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
       <c r="I10" s="26"/>
       <c r="J10" s="27"/>
       <c r="L10" s="28"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I11" s="29"/>
       <c r="J11" s="30"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I12" s="32"/>
       <c r="J12" s="33"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I13" s="34"/>
       <c r="J13" s="35"/>
       <c r="L13" s="36"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I14" s="37"/>
       <c r="J14" s="38"/>
       <c r="L14" s="39"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I15" s="40"/>
       <c r="J15" s="41"/>
       <c r="L15" s="42"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I16" s="43"/>
       <c r="J16" s="44"/>
       <c r="L16" s="45"/>
     </row>
-    <row r="17" spans="9:12">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I17" s="46"/>
       <c r="J17" s="47"/>
       <c r="L17" s="48"/>
     </row>
-    <row r="18" spans="9:12">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I18" s="49"/>
       <c r="J18" s="50"/>
       <c r="L18" s="51"/>
     </row>
-    <row r="19" spans="9:12">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I19" s="52"/>
       <c r="J19" s="53"/>
       <c r="L19" s="54"/>
     </row>
-    <row r="20" spans="9:12">
+    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I20" s="55"/>
       <c r="J20" s="56"/>
       <c r="L20" s="57"/>
     </row>
-    <row r="21" spans="9:12">
+    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I21" s="58"/>
       <c r="J21" s="59"/>
       <c r="L21" s="60"/>
     </row>
-    <row r="22" spans="9:12">
+    <row r="22" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I22" s="61"/>
       <c r="J22" s="62"/>
       <c r="L22" s="63"/>
     </row>
-    <row r="23" spans="9:12">
+    <row r="23" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I23" s="64"/>
       <c r="J23" s="65"/>
       <c r="L23" s="66"/>
     </row>
-    <row r="24" spans="9:12">
+    <row r="24" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I24" s="67"/>
       <c r="J24" s="68"/>
       <c r="L24" s="69"/>
     </row>
-    <row r="25" spans="9:12">
+    <row r="25" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I25" s="70"/>
       <c r="J25" s="71"/>
       <c r="L25" s="72"/>
     </row>
-    <row r="26" spans="9:12">
+    <row r="26" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I26" s="73"/>
       <c r="J26" s="74"/>
       <c r="L26" s="75"/>
     </row>
-    <row r="27" spans="9:12">
+    <row r="27" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I27" s="76"/>
       <c r="J27" s="77"/>
       <c r="L27" s="78"/>
     </row>
-    <row r="28" spans="9:12">
+    <row r="28" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I28" s="79"/>
       <c r="J28" s="80"/>
       <c r="L28" s="81"/>
     </row>
-    <row r="29" spans="9:12">
+    <row r="29" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I29" s="82"/>
       <c r="J29" s="83"/>
       <c r="L29" s="84"/>
     </row>
-    <row r="30" spans="9:12">
+    <row r="30" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I30" s="85"/>
       <c r="J30" s="86"/>
       <c r="L30" s="87"/>
     </row>
-    <row r="31" spans="9:12">
+    <row r="31" spans="9:12" x14ac:dyDescent="0.3">
       <c r="I31" s="88"/>
       <c r="J31" s="89"/>
       <c r="L31" s="90"/>
@@ -981,7 +993,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>